--- a/[Project]/KTXForecasting/Result/KTXForecasting_KCI_KK.xlsx
+++ b/[Project]/KTXForecasting/Result/KTXForecasting_KCI_KK.xlsx
@@ -59,13 +59,13 @@
     <t>전체</t>
   </si>
   <si>
-    <t>RNN</t>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
   <si>
     <t>LSTM</t>
-  </si>
-  <si>
-    <t>DilatedRNN</t>
   </si>
   <si>
     <t>ds</t>
@@ -475,16 +475,16 @@
         <v>3000063.833333333</v>
       </c>
       <c r="D2">
-        <v>3529714.5</v>
+        <v>3418760.333333333</v>
       </c>
       <c r="E2">
-        <v>3315084.25</v>
+        <v>3230238.929123467</v>
       </c>
       <c r="F2">
-        <v>10.50045712916219</v>
+        <v>7.672339942660122</v>
       </c>
       <c r="G2">
-        <v>-6.080668847296289</v>
+        <v>-5.51432056736354</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -499,16 +499,16 @@
         <v>3000063.833333333</v>
       </c>
       <c r="D3">
-        <v>3529714.5</v>
+        <v>3418760.333333333</v>
       </c>
       <c r="E3">
-        <v>3434397</v>
+        <v>3399245.753992048</v>
       </c>
       <c r="F3">
-        <v>14.47746417395674</v>
+        <v>13.30578090450789</v>
       </c>
       <c r="G3">
-        <v>-2.700430870542081</v>
+        <v>-0.5708086393484857</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -525,19 +525,19 @@
         <v>552301.5833333334</v>
       </c>
       <c r="D4">
-        <v>694868.1666666666</v>
+        <v>675125.3333333334</v>
       </c>
       <c r="E4">
-        <v>679244.125</v>
+        <v>653788.6152574118</v>
       </c>
       <c r="F4">
-        <v>22.98427987486908</v>
+        <v>18.37529259133546</v>
       </c>
       <c r="G4">
-        <v>-2.248490061304187</v>
+        <v>-3.160408448987473</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,19 +549,19 @@
         <v>552301.5833333334</v>
       </c>
       <c r="D5">
-        <v>694868.1666666666</v>
+        <v>675125.3333333334</v>
       </c>
       <c r="E5">
-        <v>701792.4375</v>
+        <v>686187.4974023629</v>
       </c>
       <c r="F5">
-        <v>27.06688857642541</v>
+        <v>24.24145034330358</v>
       </c>
       <c r="G5">
-        <v>0.9964869835021428</v>
+        <v>1.638534879799525</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -575,19 +575,19 @@
         <v>470230.5833333333</v>
       </c>
       <c r="D6">
-        <v>588157.6666666666</v>
+        <v>573079.6666666666</v>
       </c>
       <c r="E6">
-        <v>564120.25</v>
+        <v>539841.8125</v>
       </c>
       <c r="F6">
-        <v>19.96672908876089</v>
+        <v>14.80363711632964</v>
       </c>
       <c r="G6">
-        <v>-4.086900167925489</v>
+        <v>-5.799866248962471</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -599,19 +599,19 @@
         <v>470230.5833333333</v>
       </c>
       <c r="D7">
-        <v>588157.6666666666</v>
+        <v>573079.6666666666</v>
       </c>
       <c r="E7">
-        <v>601485.375</v>
+        <v>596461.1875</v>
       </c>
       <c r="F7">
-        <v>27.91285729146711</v>
+        <v>26.84440541315989</v>
       </c>
       <c r="G7">
-        <v>2.266009454381002</v>
+        <v>4.079977391159706</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -625,19 +625,19 @@
         <v>580489.3333333334</v>
       </c>
       <c r="D8">
-        <v>784707.1666666666</v>
+        <v>759475.6666666666</v>
       </c>
       <c r="E8">
-        <v>754910</v>
+        <v>734584.25</v>
       </c>
       <c r="F8">
-        <v>30.04717858726085</v>
+        <v>26.54569305895944</v>
       </c>
       <c r="G8">
-        <v>-3.797233915071918</v>
+        <v>-3.277447554826196</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -649,19 +649,19 @@
         <v>580489.3333333334</v>
       </c>
       <c r="D9">
-        <v>784707.1666666666</v>
+        <v>759475.6666666666</v>
       </c>
       <c r="E9">
-        <v>783287.8125</v>
+        <v>782492.1875</v>
       </c>
       <c r="F9">
-        <v>34.93578047371526</v>
+        <v>34.79871938502459</v>
       </c>
       <c r="G9">
-        <v>-0.1808769216032347</v>
+        <v>3.030580417981366</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -675,16 +675,16 @@
         <v>905065.5833333334</v>
       </c>
       <c r="D10">
-        <v>1031290.333333333</v>
+        <v>994879.6666666666</v>
       </c>
       <c r="E10">
-        <v>984024.8125</v>
+        <v>981807.5</v>
       </c>
       <c r="F10">
-        <v>8.724144484188855</v>
+        <v>8.479155331929444</v>
       </c>
       <c r="G10">
-        <v>-4.583143980469773</v>
+        <v>-1.313944500490671</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -699,16 +699,16 @@
         <v>905065.5833333334</v>
       </c>
       <c r="D11">
-        <v>1031290.333333333</v>
+        <v>994879.6666666666</v>
       </c>
       <c r="E11">
-        <v>1047236.0625</v>
+        <v>1032872.75</v>
       </c>
       <c r="F11">
-        <v>15.70830686579159</v>
+        <v>14.12131551792701</v>
       </c>
       <c r="G11">
-        <v>1.54619205196338</v>
+        <v>3.818862180652327</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -745,22 +745,22 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -773,60 +773,105 @@
       <c r="A2" s="2">
         <v>45383</v>
       </c>
+      <c r="B2">
+        <v>3231043.493712136</v>
+      </c>
       <c r="C2">
-        <v>3496678</v>
+        <v>3431665.190539016</v>
+      </c>
+      <c r="D2">
+        <v>656364.5915215833</v>
       </c>
       <c r="E2">
-        <v>717265.5625</v>
+        <v>688235.3112358057</v>
+      </c>
+      <c r="F2">
+        <v>545738.75</v>
       </c>
       <c r="G2">
-        <v>607794.3125</v>
+        <v>590594.75</v>
+      </c>
+      <c r="H2">
+        <v>768295.375</v>
       </c>
       <c r="I2">
-        <v>810613</v>
+        <v>800360.625</v>
+      </c>
+      <c r="J2">
+        <v>1015987.25</v>
       </c>
       <c r="K2">
-        <v>1074814.625</v>
+        <v>1044381.4375</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>45413</v>
       </c>
+      <c r="B3">
+        <v>3306013.072509189</v>
+      </c>
       <c r="C3">
-        <v>3602852</v>
+        <v>3466246.177973005</v>
+      </c>
+      <c r="D3">
+        <v>657522.5454051676</v>
       </c>
       <c r="E3">
-        <v>732962.8125</v>
+        <v>694609.2912977578</v>
+      </c>
+      <c r="F3">
+        <v>545251</v>
       </c>
       <c r="G3">
-        <v>629874.75</v>
+        <v>600194.875</v>
+      </c>
+      <c r="H3">
+        <v>813935.25</v>
       </c>
       <c r="I3">
-        <v>859928.875</v>
+        <v>847548.75</v>
+      </c>
+      <c r="J3">
+        <v>1016864.125</v>
       </c>
       <c r="K3">
-        <v>1108997.5</v>
+        <v>1060319.625</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>45444</v>
       </c>
+      <c r="B4">
+        <v>3239868.885394415</v>
+      </c>
       <c r="C4">
-        <v>3458364</v>
+        <v>3429356.963170408</v>
+      </c>
+      <c r="D4">
+        <v>657947.7915668719</v>
       </c>
       <c r="E4">
-        <v>711846.375</v>
+        <v>694620.6640738859</v>
+      </c>
+      <c r="F4">
+        <v>557472.125</v>
       </c>
       <c r="G4">
-        <v>619510.5</v>
+        <v>594083.6875</v>
+      </c>
+      <c r="H4">
+        <v>755791.125</v>
       </c>
       <c r="I4">
-        <v>822531.625</v>
+        <v>799236.625</v>
+      </c>
+      <c r="J4">
+        <v>1018910</v>
       </c>
       <c r="K4">
-        <v>1065581.5</v>
+        <v>1051080.875</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -834,34 +879,34 @@
         <v>45474</v>
       </c>
       <c r="B5">
-        <v>3365177.75</v>
+        <v>3233962.167091467</v>
       </c>
       <c r="C5">
-        <v>3366373</v>
+        <v>3381052.481123003</v>
       </c>
       <c r="D5">
-        <v>635453.625</v>
+        <v>648724.9039597069</v>
       </c>
       <c r="E5">
-        <v>677552.125</v>
+        <v>662907.8603504866</v>
       </c>
       <c r="F5">
-        <v>542964.625</v>
+        <v>543173.75</v>
       </c>
       <c r="G5">
-        <v>594523.8125</v>
+        <v>603050.375</v>
       </c>
       <c r="H5">
-        <v>676974.9375</v>
+        <v>685379.375</v>
       </c>
       <c r="I5">
-        <v>750306.75</v>
+        <v>744157</v>
       </c>
       <c r="J5">
-        <v>959832.3125</v>
+        <v>955269.3125</v>
       </c>
       <c r="K5">
-        <v>1030996.5</v>
+        <v>1037824.875</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -869,34 +914,34 @@
         <v>45505</v>
       </c>
       <c r="B6">
-        <v>3367297</v>
+        <v>3215172.49326963</v>
       </c>
       <c r="C6">
-        <v>3489638.5</v>
+        <v>3363363.747849399</v>
       </c>
       <c r="D6">
-        <v>679134.5</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E6">
-        <v>705410.5625</v>
+        <v>691092.9048924999</v>
       </c>
       <c r="F6">
-        <v>577652.75</v>
+        <v>554877.5625</v>
       </c>
       <c r="G6">
-        <v>615186.3125</v>
+        <v>606428.8125</v>
       </c>
       <c r="H6">
-        <v>757287.4375</v>
+        <v>756546.0625</v>
       </c>
       <c r="I6">
-        <v>805571.3125</v>
+        <v>799371.125</v>
       </c>
       <c r="J6">
-        <v>946454.75</v>
+        <v>1017486.9375</v>
       </c>
       <c r="K6">
-        <v>1049437.25</v>
+        <v>1047381.4375</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -904,34 +949,34 @@
         <v>45536</v>
       </c>
       <c r="B7">
-        <v>3295137.25</v>
+        <v>3324659.418312716</v>
       </c>
       <c r="C7">
-        <v>3353334.5</v>
+        <v>3476829.363871184</v>
       </c>
       <c r="D7">
-        <v>664674.9375</v>
+        <v>657947.7915668719</v>
       </c>
       <c r="E7">
-        <v>689092.4375</v>
+        <v>693063.8584214558</v>
       </c>
       <c r="F7">
-        <v>568969.875</v>
+        <v>533819.5625</v>
       </c>
       <c r="G7">
-        <v>605743.5</v>
+        <v>600769.9375</v>
       </c>
       <c r="H7">
-        <v>711981.75</v>
+        <v>708204</v>
       </c>
       <c r="I7">
-        <v>740026.5</v>
+        <v>746851.125</v>
       </c>
       <c r="J7">
-        <v>995596</v>
+        <v>935218.125</v>
       </c>
       <c r="K7">
-        <v>1119915</v>
+        <v>1046526.4375</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -939,34 +984,34 @@
         <v>45566</v>
       </c>
       <c r="B8">
-        <v>3513247.25</v>
+        <v>3326914.514976653</v>
       </c>
       <c r="C8">
-        <v>3617621.5</v>
+        <v>3466246.177973005</v>
       </c>
       <c r="D8">
-        <v>711674.75</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E8">
-        <v>729710.1875</v>
+        <v>692198.7755709165</v>
       </c>
       <c r="F8">
-        <v>608434.375</v>
+        <v>552655.875</v>
       </c>
       <c r="G8">
-        <v>621542.625</v>
+        <v>602224.3125</v>
       </c>
       <c r="H8">
-        <v>767195.75</v>
+        <v>763336.4375</v>
       </c>
       <c r="I8">
-        <v>782381.9375</v>
+        <v>790463.125</v>
       </c>
       <c r="J8">
-        <v>1029287.4375</v>
+        <v>1015160.4375</v>
       </c>
       <c r="K8">
-        <v>1134625.125</v>
+        <v>1058227.625</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -974,34 +1019,34 @@
         <v>45597</v>
       </c>
       <c r="B9">
-        <v>3439726.75</v>
+        <v>3246975.603419011</v>
       </c>
       <c r="C9">
-        <v>3670770.75</v>
+        <v>3449141.190876911</v>
       </c>
       <c r="D9">
-        <v>700759.9375</v>
+        <v>657545.6600877317</v>
       </c>
       <c r="E9">
-        <v>739486.625</v>
+        <v>694620.6640738859</v>
       </c>
       <c r="F9">
-        <v>587412.375</v>
+        <v>561319.75</v>
       </c>
       <c r="G9">
-        <v>611840.9375</v>
+        <v>610702.6875</v>
       </c>
       <c r="H9">
-        <v>754418.0625</v>
+        <v>747702.1875</v>
       </c>
       <c r="I9">
-        <v>781694.625</v>
+        <v>782665.4375</v>
       </c>
       <c r="J9">
-        <v>1032737.625</v>
+        <v>1024371.125</v>
       </c>
       <c r="K9">
-        <v>1138004.5</v>
+        <v>1054206.75</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1009,34 +1054,34 @@
         <v>45627</v>
       </c>
       <c r="B10">
-        <v>3363048.25</v>
+        <v>3236073.935737094</v>
       </c>
       <c r="C10">
-        <v>3608837</v>
+        <v>3363363.747849399</v>
       </c>
       <c r="D10">
-        <v>718398.875</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E10">
-        <v>745473</v>
+        <v>688682.3891656586</v>
       </c>
       <c r="F10">
-        <v>601744.25</v>
+        <v>552003</v>
       </c>
       <c r="G10">
-        <v>637902.25</v>
+        <v>602231</v>
       </c>
       <c r="H10">
-        <v>778070.875</v>
+        <v>754140.625</v>
       </c>
       <c r="I10">
-        <v>794863.1875</v>
+        <v>792108.875</v>
       </c>
       <c r="J10">
-        <v>1005050.5</v>
+        <v>1015608.125</v>
       </c>
       <c r="K10">
-        <v>1118545.75</v>
+        <v>1043179.125</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1044,34 +1089,34 @@
         <v>45658</v>
       </c>
       <c r="B11">
-        <v>3102318.5</v>
+        <v>3133219.345916915</v>
       </c>
       <c r="C11">
-        <v>3142195.25</v>
+        <v>3226164.045441224</v>
       </c>
       <c r="D11">
-        <v>642183.875</v>
+        <v>649348.2501751363</v>
       </c>
       <c r="E11">
-        <v>626956.4375</v>
+        <v>670538.8912348312</v>
       </c>
       <c r="F11">
-        <v>524284.71875</v>
+        <v>494183.625</v>
       </c>
       <c r="G11">
-        <v>551992.875</v>
+        <v>562185.75</v>
       </c>
       <c r="H11">
-        <v>735905.625</v>
+        <v>699151.875</v>
       </c>
       <c r="I11">
-        <v>736496</v>
+        <v>741243.3125</v>
       </c>
       <c r="J11">
-        <v>881744.75</v>
+        <v>912565.125</v>
       </c>
       <c r="K11">
-        <v>949038.25</v>
+        <v>930535.125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1079,34 +1124,34 @@
         <v>45689</v>
       </c>
       <c r="B12">
-        <v>3344636</v>
+        <v>3240120.673792352</v>
       </c>
       <c r="C12">
-        <v>3589110</v>
+        <v>3451620.451969148</v>
       </c>
       <c r="D12">
-        <v>714906.875</v>
+        <v>655962.460042443</v>
       </c>
       <c r="E12">
-        <v>722005.875</v>
+        <v>690645.826962647</v>
       </c>
       <c r="F12">
-        <v>591020.75</v>
+        <v>552583.125</v>
       </c>
       <c r="G12">
-        <v>621384.5</v>
+        <v>598926.4375</v>
       </c>
       <c r="H12">
-        <v>803850.125</v>
+        <v>769904.75</v>
       </c>
       <c r="I12">
-        <v>813605.375</v>
+        <v>818706.75</v>
       </c>
       <c r="J12">
-        <v>1011574.0625</v>
+        <v>988715.5625</v>
       </c>
       <c r="K12">
-        <v>1078973.25</v>
+        <v>1057224.875</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1114,34 +1159,34 @@
         <v>45717</v>
       </c>
       <c r="B13">
-        <v>3174857.5</v>
+        <v>3133219.345916915</v>
       </c>
       <c r="C13">
-        <v>3217099.25</v>
+        <v>3306411.145143641</v>
       </c>
       <c r="D13">
-        <v>657091.3125</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E13">
-        <v>670060.3125</v>
+        <v>694609.2912977578</v>
       </c>
       <c r="F13">
-        <v>541153.4375</v>
+        <v>541169.625</v>
       </c>
       <c r="G13">
-        <v>566170.375</v>
+        <v>575614.0625</v>
       </c>
       <c r="H13">
-        <v>736127.1875</v>
+        <v>730173.625</v>
       </c>
       <c r="I13">
-        <v>746712.375</v>
+        <v>750029.0625</v>
       </c>
       <c r="J13">
-        <v>945329.5</v>
+        <v>946786.5625</v>
       </c>
       <c r="K13">
-        <v>979585.3125</v>
+        <v>1000393.8125</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1149,34 +1194,34 @@
         <v>45748</v>
       </c>
       <c r="B14">
-        <v>3397110.75</v>
+        <v>3258658.559216253</v>
       </c>
       <c r="C14">
-        <v>3516141.5</v>
+        <v>3457127.810080301</v>
       </c>
       <c r="D14">
-        <v>682578.75</v>
+        <v>649150.1501214112</v>
       </c>
       <c r="E14">
-        <v>716075.0625</v>
+        <v>686719.2338771098</v>
       </c>
       <c r="F14">
-        <v>550634.5</v>
+        <v>545429.4375</v>
       </c>
       <c r="G14">
-        <v>591688</v>
+        <v>596853.5</v>
       </c>
       <c r="H14">
-        <v>769432.6875</v>
+        <v>777199.5</v>
       </c>
       <c r="I14">
-        <v>803615.125</v>
+        <v>805779.6875</v>
       </c>
       <c r="J14">
-        <v>995586.5</v>
+        <v>1017117.375</v>
       </c>
       <c r="K14">
-        <v>1058699.5</v>
+        <v>1044835.75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1184,34 +1229,34 @@
         <v>45778</v>
       </c>
       <c r="B15">
-        <v>3364362.25</v>
+        <v>3306013.072509189</v>
       </c>
       <c r="C15">
-        <v>3552339.5</v>
+        <v>3466246.177973005</v>
       </c>
       <c r="D15">
-        <v>697926.875</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E15">
-        <v>738657.875</v>
+        <v>694609.2912977578</v>
       </c>
       <c r="F15">
-        <v>599917.875</v>
+        <v>541787.1875</v>
       </c>
       <c r="G15">
-        <v>628961.6875</v>
+        <v>604506.5</v>
       </c>
       <c r="H15">
-        <v>801763.625</v>
+        <v>779708.0625</v>
       </c>
       <c r="I15">
-        <v>851196.125</v>
+        <v>827093.4375</v>
       </c>
       <c r="J15">
-        <v>984804.625</v>
+        <v>934878.6875</v>
       </c>
       <c r="K15">
-        <v>1094454.625</v>
+        <v>1046481.9375</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1219,34 +1264,34 @@
         <v>45809</v>
       </c>
       <c r="B16">
-        <v>3262854.75</v>
+        <v>3231043.493712136</v>
       </c>
       <c r="C16">
-        <v>3471835.5</v>
+        <v>3431665.190539016</v>
       </c>
       <c r="D16">
-        <v>668547.875</v>
+        <v>656364.5915215833</v>
       </c>
       <c r="E16">
-        <v>695755</v>
+        <v>688235.3112358057</v>
       </c>
       <c r="F16">
-        <v>565192.375</v>
+        <v>545738.75</v>
       </c>
       <c r="G16">
-        <v>611773</v>
+        <v>590572.75</v>
       </c>
       <c r="H16">
-        <v>767239.9375</v>
+        <v>726193.75</v>
       </c>
       <c r="I16">
-        <v>798688</v>
+        <v>803725.125</v>
       </c>
       <c r="J16">
-        <v>987885.875</v>
+        <v>1016105.4375</v>
       </c>
       <c r="K16">
-        <v>1039698.125</v>
+        <v>1043930</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1254,34 +1299,34 @@
         <v>45839</v>
       </c>
       <c r="B17">
-        <v>3255325</v>
+        <v>3233962.167091467</v>
       </c>
       <c r="C17">
-        <v>3337159.75</v>
+        <v>3381052.481123003</v>
       </c>
       <c r="D17">
-        <v>634030.5</v>
+        <v>648724.9039597069</v>
       </c>
       <c r="E17">
-        <v>669891.875</v>
+        <v>662907.8603504866</v>
       </c>
       <c r="F17">
-        <v>538766.875</v>
+        <v>543173.75</v>
       </c>
       <c r="G17">
-        <v>575301.5</v>
+        <v>603050.375</v>
       </c>
       <c r="H17">
-        <v>698308.5</v>
+        <v>688531.25</v>
       </c>
       <c r="I17">
-        <v>743911.875</v>
+        <v>723717.4375</v>
       </c>
       <c r="J17">
-        <v>962008.625</v>
+        <v>955269.3125</v>
       </c>
       <c r="K17">
-        <v>990562.75</v>
+        <v>1037824.875</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1289,34 +1334,34 @@
         <v>45870</v>
       </c>
       <c r="B18">
-        <v>3313626.75</v>
+        <v>3215172.49326963</v>
       </c>
       <c r="C18">
-        <v>3424849</v>
+        <v>3363363.747849399</v>
       </c>
       <c r="D18">
-        <v>667342</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E18">
-        <v>684772.125</v>
+        <v>691092.9048924999</v>
       </c>
       <c r="F18">
-        <v>558061</v>
+        <v>554877.5625</v>
       </c>
       <c r="G18">
-        <v>582894.9375</v>
+        <v>606428.8125</v>
       </c>
       <c r="H18">
-        <v>757577.875</v>
+        <v>749550.125</v>
       </c>
       <c r="I18">
-        <v>800933.75</v>
+        <v>801025.0625</v>
       </c>
       <c r="J18">
-        <v>938490.8125</v>
+        <v>1017486.9375</v>
       </c>
       <c r="K18">
-        <v>1017852.875</v>
+        <v>1047381.4375</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1324,34 +1369,34 @@
         <v>45901</v>
       </c>
       <c r="B19">
-        <v>3351397.75</v>
+        <v>3258658.559216253</v>
       </c>
       <c r="C19">
-        <v>3428102.5</v>
+        <v>3457127.810080301</v>
       </c>
       <c r="D19">
-        <v>697165.125</v>
+        <v>649150.1501214112</v>
       </c>
       <c r="E19">
-        <v>727846.5</v>
+        <v>686719.2338771098</v>
       </c>
       <c r="F19">
-        <v>575942.75</v>
+        <v>545429.4375</v>
       </c>
       <c r="G19">
-        <v>615449.9375</v>
+        <v>607880.25</v>
       </c>
       <c r="H19">
-        <v>729916.8125</v>
+        <v>695726.75</v>
       </c>
       <c r="I19">
-        <v>755083.75</v>
+        <v>752562.8125</v>
       </c>
       <c r="J19">
-        <v>1023858.25</v>
+        <v>1017117.375</v>
       </c>
       <c r="K19">
-        <v>1074720.5</v>
+        <v>1045232.3125</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1359,34 +1404,34 @@
         <v>45931</v>
       </c>
       <c r="B20">
-        <v>3433506</v>
+        <v>3306013.072509189</v>
       </c>
       <c r="C20">
-        <v>3398539.5</v>
+        <v>3443599.238303699</v>
       </c>
       <c r="D20">
-        <v>694647.1875</v>
+        <v>657522.5454051676</v>
       </c>
       <c r="E20">
-        <v>708710.5</v>
+        <v>692487.8025742935</v>
       </c>
       <c r="F20">
-        <v>593795.125</v>
+        <v>508577.3125</v>
       </c>
       <c r="G20">
-        <v>630218.625</v>
+        <v>599992.9375</v>
       </c>
       <c r="H20">
-        <v>749309.5</v>
+        <v>736071.75</v>
       </c>
       <c r="I20">
-        <v>793174</v>
+        <v>798327.625</v>
       </c>
       <c r="J20">
-        <v>1061554.125</v>
+        <v>934712.0625</v>
       </c>
       <c r="K20">
-        <v>1110025.25</v>
+        <v>1041879.625</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1394,34 +1439,34 @@
         <v>45962</v>
       </c>
       <c r="B21">
-        <v>3361072.75</v>
+        <v>3246975.603419011</v>
       </c>
       <c r="C21">
-        <v>3613328</v>
+        <v>3449141.190876911</v>
       </c>
       <c r="D21">
-        <v>683255.625</v>
+        <v>657545.6600877317</v>
       </c>
       <c r="E21">
-        <v>735540.75</v>
+        <v>694620.6640738859</v>
       </c>
       <c r="F21">
-        <v>562783.9375</v>
+        <v>561319.75</v>
       </c>
       <c r="G21">
-        <v>614603.75</v>
+        <v>610702.6875</v>
       </c>
       <c r="H21">
-        <v>736679.5</v>
+        <v>733290.1875</v>
       </c>
       <c r="I21">
-        <v>787584.5</v>
+        <v>778713.25</v>
       </c>
       <c r="J21">
-        <v>1007803.875</v>
+        <v>1024371.125</v>
       </c>
       <c r="K21">
-        <v>1084233.75</v>
+        <v>1054206.75</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1429,34 +1474,34 @@
         <v>45992</v>
       </c>
       <c r="B22">
-        <v>3419945.5</v>
+        <v>3199810.762912304</v>
       </c>
       <c r="C22">
-        <v>3522065.5</v>
+        <v>3357429.758524925</v>
       </c>
       <c r="D22">
-        <v>711253.8125</v>
+        <v>649127.0354388471</v>
       </c>
       <c r="E22">
-        <v>725236.9375</v>
+        <v>681063.6571541691</v>
       </c>
       <c r="F22">
-        <v>567890.0625</v>
+        <v>543831.5625</v>
       </c>
       <c r="G22">
-        <v>627385.5625</v>
+        <v>600820.375</v>
       </c>
       <c r="H22">
-        <v>772808.3125</v>
+        <v>729509.25</v>
       </c>
       <c r="I22">
-        <v>768451.5</v>
+        <v>788982.5</v>
       </c>
       <c r="J22">
-        <v>1007657.5</v>
+        <v>1016565</v>
       </c>
       <c r="K22">
-        <v>1088988.125</v>
+        <v>1044545.5625</v>
       </c>
     </row>
   </sheetData>
